--- a/biology/Biochimie/Flavine_mononucléotide/Flavine_mononucléotide.xlsx
+++ b/biology/Biochimie/Flavine_mononucléotide/Flavine_mononucléotide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flavine_mononucl%C3%A9otide</t>
+          <t>Flavine_mononucléotide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La flavine mononucléotide (FMN), ou riboflavine-5′-phosphate, est une biomolécule produite à partir de la riboflavine (vitamine B2) par l'enzyme riboflavine kinase et agit comme groupement prosthétique de diverses oxydo-réductases, comme la NADH déshydrogénase, mais aussi comme cofacteur avec les bio-photorécepteurs de lumière bleue. Durant le cycle catalytique, il se produit une interconversion réversible entre les formes oxydée (FMN), semiquinone (FMNH•) et réduites (FMNH2). En tant que groupement prosthétique, elle est fixée à son apoenzyme de façon covalente par un résidu tyrosyl. C'est notamment le cofacteur du complexe I de la chaîne respiratoire mitochondriale.
